--- a/Backend/output.xlsx
+++ b/Backend/output.xlsx
@@ -418,10 +418,10 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>हरनामसिंह पुत्र रामचरन</v>
+        <v>रामा पुत्री दशरथ</v>
       </c>
       <c r="B2" t="str">
-        <v>Harnam Singh son Ramcharan</v>
+        <v>Rama daughter Dasharatha</v>
       </c>
       <c r="C2" t="str">
         <v/>
@@ -432,10 +432,10 @@
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>हरनामसिंह पुत्र रामचरन</v>
+        <v>रामू पुत्र मुकन्दी</v>
       </c>
       <c r="B3" t="str">
-        <v>Harnam Singh son Ramcharan</v>
+        <v>Ramu son Mukandi</v>
       </c>
       <c r="C3" t="str">
         <v/>
@@ -446,10 +446,10 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>हरिनाम पुत्र टुंडा</v>
+        <v>रामेश्वर पुत्र हरकंठ</v>
       </c>
       <c r="B4" t="str">
-        <v>Harinam son Tunda</v>
+        <v>Rameshwar son Harkanth</v>
       </c>
       <c r="C4" t="str">
         <v/>
@@ -460,10 +460,10 @@
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>हरिशंकर पुत्र गिर्ाज</v>
+        <v>रिंकू पुत्र राजवीर</v>
       </c>
       <c r="B5" t="str">
-        <v>Harishankar son Giraj</v>
+        <v>Rinku son Rajveer</v>
       </c>
       <c r="C5" t="str">
         <v/>
@@ -474,10 +474,10 @@
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>हरिशंकर पुत्र गिर्ाज</v>
+        <v>रीना पत्नी दाताराम</v>
       </c>
       <c r="B6" t="str">
-        <v>Harishankar son Giraj</v>
+        <v>Reena wife Datram</v>
       </c>
       <c r="C6" t="str">
         <v/>
@@ -488,10 +488,10 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>हरेन्द्र पुत्र महेन्द्र सिंह</v>
+        <v>रीना नाबालिग पुत्री पंचम संरक्षक माँ</v>
       </c>
       <c r="B7" t="str">
-        <v>Harendra son Mahendra Singh</v>
+        <v>Reena minor daughter is the fifth patron mother</v>
       </c>
       <c r="C7" t="str">
         <v/>
@@ -502,10 +502,10 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>हरेन्द्र पुत्र महेन्द्र सिंह</v>
+        <v>मंजेश</v>
       </c>
       <c r="B8" t="str">
-        <v>Harendra son Mahendra Singh</v>
+        <v>Manjesh</v>
       </c>
       <c r="C8" t="str">
         <v/>
@@ -516,10 +516,10 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>हलुकी पुत्री कंचनसिंह</v>
+        <v>रेखा पुत्री दीना</v>
       </c>
       <c r="B9" t="str">
-        <v>Pulki daughter Kanchan Singh</v>
+        <v>Rekha daughter dina</v>
       </c>
       <c r="C9" t="str">
         <v/>
@@ -530,10 +530,10 @@
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>हल्के पुत्र लल्‍ली</v>
+        <v>लखन पुत्र सोवरनसिंह</v>
       </c>
       <c r="B10" t="str">
-        <v>Light son Lalli</v>
+        <v>Lakhan Putra Sowran Singh</v>
       </c>
       <c r="C10" t="str">
         <v/>
@@ -544,10 +544,10 @@
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>हारिवो बेवा रघुवर</v>
+        <v>लखनसिंह पुत्र सोवरनसिंह</v>
       </c>
       <c r="B11" t="str">
-        <v>Harivo Beva Raghuvar</v>
+        <v>Lakhan Singh son Sowran Singh</v>
       </c>
       <c r="C11" t="str">
         <v/>
@@ -558,10 +558,10 @@
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>होरिल पुत्र चक्रा</v>
+        <v>लख्खा पुत्र छोटा</v>
       </c>
       <c r="B12" t="str">
-        <v>Horil son Chakra</v>
+        <v>Lakha son younger</v>
       </c>
       <c r="C12" t="str">
         <v/>
